--- a/Phase_2/DASHBOARD ANALYSIS OF OVERALL CRIMES.xlsx
+++ b/Phase_2/DASHBOARD ANALYSIS OF OVERALL CRIMES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e33b39666776f46f/Desktop/Capstone Project/Phase2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{62995071-AC84-4C4D-A905-48B4E56BB360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{7EF82880-9CE1-4AD4-97E7-A7F87ABA77F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="-108" windowWidth="17496" windowHeight="11016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overall_crime_India" sheetId="1" r:id="rId1"/>
@@ -17305,8 +17305,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
@@ -17324,7 +17324,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="0"/>
-          <a:ext cx="12725400" cy="7955280"/>
+          <a:ext cx="15049500" cy="7955280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17360,13 +17360,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
@@ -17398,13 +17398,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>29011</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -17435,14 +17435,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
@@ -17473,14 +17473,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>312419</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -17511,14 +17511,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -17549,14 +17549,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
@@ -17588,13 +17588,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -17626,8 +17626,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7620" y="624840"/>
-          <a:ext cx="4602480" cy="2194560"/>
+          <a:off x="0" y="624840"/>
+          <a:ext cx="5554980" cy="2194560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17644,14 +17644,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -17683,8 +17683,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8702040" y="617220"/>
-          <a:ext cx="3992880" cy="2202180"/>
+          <a:off x="10058400" y="617220"/>
+          <a:ext cx="4373880" cy="2202180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17791,14 +17791,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
@@ -17830,8 +17830,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4625340" y="2811780"/>
-          <a:ext cx="4084320" cy="2118360"/>
+          <a:off x="5562600" y="2811780"/>
+          <a:ext cx="4503420" cy="2118360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18998,6 +18998,399 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="A41:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
+      <items count="36">
+        <item x="30"/>
+        <item x="2"/>
+        <item x="27"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="23"/>
+        <item x="15"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="11"/>
+        <item x="24"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="34"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="29"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of TOTAL CRIMES AGAINST CHILDREN" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="10" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="count" evalOrder="-1" id="3" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="10" filterVal="10"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000007000000}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="40" rowHeaderCaption="Overall Crimes">
+  <location ref="A113:C125" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending">
+      <items count="36">
+        <item x="30"/>
+        <item x="2"/>
+        <item x="27"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="23"/>
+        <item x="15"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="11"/>
+        <item x="24"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="34"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="29"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="36">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <items count="36">
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="24"/>
+        <item x="29"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="21"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="OVERALL CRIMES" fld="9" baseField="0" baseItem="19"/>
+    <dataField name="Total Population" fld="12" baseField="0" baseItem="19"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="count" evalOrder="-1" id="11" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="10" filterVal="10"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000005000000}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A80:B91" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
@@ -19400,7 +19793,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A60:B71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
@@ -19803,7 +20196,170 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A23:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
+      <items count="36">
+        <item x="30"/>
+        <item x="2"/>
+        <item x="27"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="23"/>
+        <item x="15"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="11"/>
+        <item x="24"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="34"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="29"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of TOTAL CRIME WOMEN" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="count" evalOrder="-1" id="2" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="10" filterVal="10"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="40" rowHeaderCaption="Overall Crimes">
   <location ref="A146:D158" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="25">
@@ -20048,804 +20604,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000008000000}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="40" rowHeaderCaption="Overall Crimes">
-  <location ref="A130:C142" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="25">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending">
-      <items count="36">
-        <item x="30"/>
-        <item x="2"/>
-        <item x="27"/>
-        <item x="14"/>
-        <item x="9"/>
-        <item x="23"/>
-        <item x="15"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="11"/>
-        <item x="24"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="34"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="25"/>
-        <item x="28"/>
-        <item x="26"/>
-        <item x="29"/>
-        <item x="12"/>
-        <item x="22"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="31"/>
-        <item x="5"/>
-        <item x="21"/>
-        <item x="3"/>
-        <item x="20"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" sortType="descending">
-      <items count="36">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="36">
-        <item x="34"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="23"/>
-        <item x="26"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="24"/>
-        <item x="29"/>
-        <item x="25"/>
-        <item x="28"/>
-        <item x="21"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="18"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="8"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="OVERALL CRIMES" fld="9" baseField="0" baseItem="19"/>
-    <dataField name="Literacy Rate" fld="17" baseField="0" baseItem="19"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="36" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="count" evalOrder="-1" id="12" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="10" filterVal="10"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="A41:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="25">
-    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
-      <items count="36">
-        <item x="30"/>
-        <item x="2"/>
-        <item x="27"/>
-        <item x="14"/>
-        <item x="9"/>
-        <item x="23"/>
-        <item x="15"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="11"/>
-        <item x="24"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="34"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="25"/>
-        <item x="28"/>
-        <item x="26"/>
-        <item x="29"/>
-        <item x="12"/>
-        <item x="22"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="31"/>
-        <item x="5"/>
-        <item x="21"/>
-        <item x="3"/>
-        <item x="20"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of TOTAL CRIMES AGAINST CHILDREN" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="10" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="count" evalOrder="-1" id="3" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="10" filterVal="10"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000007000000}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="40" rowHeaderCaption="Overall Crimes">
-  <location ref="A113:C125" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="25">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending">
-      <items count="36">
-        <item x="30"/>
-        <item x="2"/>
-        <item x="27"/>
-        <item x="14"/>
-        <item x="9"/>
-        <item x="23"/>
-        <item x="15"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="11"/>
-        <item x="24"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="34"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="25"/>
-        <item x="28"/>
-        <item x="26"/>
-        <item x="29"/>
-        <item x="12"/>
-        <item x="22"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="31"/>
-        <item x="5"/>
-        <item x="21"/>
-        <item x="3"/>
-        <item x="20"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" sortType="descending">
-      <items count="36">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <items count="36">
-        <item x="34"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="23"/>
-        <item x="26"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="24"/>
-        <item x="29"/>
-        <item x="25"/>
-        <item x="28"/>
-        <item x="21"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="18"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="8"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="OVERALL CRIMES" fld="9" baseField="0" baseItem="19"/>
-    <dataField name="Total Population" fld="12" baseField="0" baseItem="19"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="count" evalOrder="-1" id="11" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="10" filterVal="10"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A23:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="25">
-    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
-      <items count="36">
-        <item x="30"/>
-        <item x="2"/>
-        <item x="27"/>
-        <item x="14"/>
-        <item x="9"/>
-        <item x="23"/>
-        <item x="15"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="11"/>
-        <item x="24"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="34"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="25"/>
-        <item x="28"/>
-        <item x="26"/>
-        <item x="29"/>
-        <item x="12"/>
-        <item x="22"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="31"/>
-        <item x="5"/>
-        <item x="21"/>
-        <item x="3"/>
-        <item x="20"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of TOTAL CRIME WOMEN" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="5" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="count" evalOrder="-1" id="2" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="10" filterVal="10"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
@@ -21248,7 +21007,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000006000000}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
   <location ref="A95:B106" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
@@ -21411,6 +21170,247 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000008000000}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="40" rowHeaderCaption="Overall Crimes">
+  <location ref="A130:C142" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending">
+      <items count="36">
+        <item x="30"/>
+        <item x="2"/>
+        <item x="27"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="23"/>
+        <item x="15"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="11"/>
+        <item x="24"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="34"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="29"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="36">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="36">
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="24"/>
+        <item x="29"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="21"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="OVERALL CRIMES" fld="9" baseField="0" baseItem="19"/>
+    <dataField name="Literacy Rate" fld="17" baseField="0" baseItem="19"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="36" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="count" evalOrder="-1" id="12" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="10" filterVal="10"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y36" totalsRowShown="0">
   <autoFilter ref="A1:Y36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -21446,9 +21446,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -21486,7 +21486,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -21592,7 +21592,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -21734,7 +21734,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -24569,7 +24569,7 @@
   <sheetViews>
     <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="A146" sqref="A146:D158"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeRow="145" previousRow="145" click="1" r:id="rId3">
+      <pivotSelection pane="bottomRight" showHeader="1" activeRow="145" previousRow="145" click="1" r:id="rId6">
         <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
       </pivotSelection>
     </sheetView>
